--- a/attendance-files/FA-II/FA-II (B) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (B) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="171">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
@@ -2279,7 +2279,9 @@
       </c>
       <c r="N21" s="36"/>
       <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
+      <c r="P21" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="Q21" s="36"/>
       <c r="R21" s="36"/>
       <c r="S21" s="36"/>
@@ -3102,7 +3104,7 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
@@ -3121,7 +3123,9 @@
       <c r="M39" s="36"/>
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
+      <c r="P39" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="Q39" s="36"/>
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
@@ -3286,7 +3290,7 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
@@ -3300,7 +3304,9 @@
       <c r="L43" s="36"/>
       <c r="M43" s="36"/>
       <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
+      <c r="O43" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="P43" s="36"/>
       <c r="Q43" s="36"/>
       <c r="R43" s="36"/>
@@ -3522,7 +3528,7 @@
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
@@ -3536,7 +3542,9 @@
       <c r="L48" s="36"/>
       <c r="M48" s="36"/>
       <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
+      <c r="O48" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="P48" s="36"/>
       <c r="Q48" s="36"/>
       <c r="R48" s="36"/>
@@ -3566,7 +3574,7 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
@@ -3585,7 +3593,9 @@
       <c r="M49" s="36"/>
       <c r="N49" s="36"/>
       <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
+      <c r="P49" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="Q49" s="36"/>
       <c r="R49" s="36"/>
       <c r="S49" s="36"/>
@@ -3796,7 +3806,7 @@
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
@@ -3812,7 +3822,9 @@
       <c r="N54" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="O54" s="36"/>
+      <c r="O54" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="P54" s="36"/>
       <c r="Q54" s="36"/>
       <c r="R54" s="36"/>
@@ -3932,7 +3944,7 @@
       </c>
       <c r="E57" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
@@ -3952,7 +3964,9 @@
         <v>42</v>
       </c>
       <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
+      <c r="O57" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="P57" s="36"/>
       <c r="Q57" s="36"/>
       <c r="R57" s="36"/>
@@ -3982,7 +3996,7 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
@@ -4001,7 +4015,9 @@
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
       <c r="O58" s="36"/>
-      <c r="P58" s="36"/>
+      <c r="P58" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="Q58" s="36"/>
       <c r="R58" s="36"/>
       <c r="S58" s="36"/>
@@ -4256,7 +4272,7 @@
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
@@ -4271,7 +4287,9 @@
       <c r="M64" s="36"/>
       <c r="N64" s="36"/>
       <c r="O64" s="36"/>
-      <c r="P64" s="36"/>
+      <c r="P64" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="Q64" s="36"/>
       <c r="R64" s="36"/>
       <c r="S64" s="36"/>
@@ -4300,7 +4318,7 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
@@ -4315,7 +4333,9 @@
       <c r="M65" s="36"/>
       <c r="N65" s="36"/>
       <c r="O65" s="36"/>
-      <c r="P65" s="36"/>
+      <c r="P65" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="Q65" s="36"/>
       <c r="R65" s="36"/>
       <c r="S65" s="36"/>
@@ -4344,7 +4364,7 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
@@ -4362,7 +4382,9 @@
       <c r="N66" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="O66" s="36"/>
+      <c r="O66" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="P66" s="36"/>
       <c r="Q66" s="36"/>
       <c r="R66" s="36"/>
@@ -4436,7 +4458,7 @@
       </c>
       <c r="E68" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
@@ -4452,7 +4474,9 @@
       <c r="L68" s="36"/>
       <c r="M68" s="36"/>
       <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
+      <c r="O68" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="P68" s="36"/>
       <c r="Q68" s="36"/>
       <c r="R68" s="36"/>
@@ -4756,7 +4780,7 @@
       </c>
       <c r="E75" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
@@ -4773,7 +4797,9 @@
         <v>42</v>
       </c>
       <c r="O75" s="36"/>
-      <c r="P75" s="36"/>
+      <c r="P75" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="Q75" s="36"/>
       <c r="R75" s="36"/>
       <c r="S75" s="36"/>
@@ -4848,7 +4874,7 @@
       </c>
       <c r="E77" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
@@ -4864,8 +4890,12 @@
       <c r="N77" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="O77" s="36"/>
-      <c r="P77" s="36"/>
+      <c r="O77" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P77" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="Q77" s="36"/>
       <c r="R77" s="36"/>
       <c r="S77" s="36"/>
@@ -4894,7 +4924,7 @@
       </c>
       <c r="E78" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
@@ -4908,7 +4938,9 @@
       <c r="L78" s="36"/>
       <c r="M78" s="36"/>
       <c r="N78" s="36"/>
-      <c r="O78" s="36"/>
+      <c r="O78" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="P78" s="36"/>
       <c r="Q78" s="36"/>
       <c r="R78" s="36"/>
@@ -4938,7 +4970,7 @@
       </c>
       <c r="E79" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
@@ -4954,7 +4986,9 @@
       <c r="L79" s="36"/>
       <c r="M79" s="36"/>
       <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
+      <c r="O79" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="P79" s="36"/>
       <c r="Q79" s="36"/>
       <c r="R79" s="36"/>
@@ -4984,7 +5018,7 @@
       </c>
       <c r="E80" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
@@ -5004,7 +5038,9 @@
       <c r="N80" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="O80" s="36"/>
+      <c r="O80" s="38" t="s">
+        <v>42</v>
+      </c>
       <c r="P80" s="36"/>
       <c r="Q80" s="36"/>
       <c r="R80" s="36"/>

--- a/attendance-files/FA-II/FA-II (B) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (B) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="171">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -84,6 +84,9 @@
     <t xml:space="preserve">          A</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>2024PGP013</t>
   </si>
   <si>
@@ -142,9 +145,6 @@
   </si>
   <si>
     <t>Ankit Kumar Meena</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>2021IPM022</t>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
@@ -1642,7 +1642,9 @@
       <c r="P7" s="30"/>
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
+      <c r="S7" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
       <c r="V7" s="30"/>
@@ -1658,10 +1660,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>9</v>
@@ -1702,10 +1704,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>9</v>
@@ -1746,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>9</v>
@@ -1790,10 +1792,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>9</v>
@@ -1834,10 +1836,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>9</v>
@@ -1878,17 +1880,17 @@
         <v>7</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
@@ -1908,7 +1910,9 @@
       <c r="P13" s="36"/>
       <c r="Q13" s="36"/>
       <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
+      <c r="S13" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="T13" s="36"/>
       <c r="U13" s="36"/>
       <c r="V13" s="36"/>
@@ -1924,10 +1928,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>9</v>
@@ -1968,17 +1972,17 @@
         <v>9</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
@@ -1997,8 +2001,12 @@
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
       <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
+      <c r="R15" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="T15" s="36"/>
       <c r="U15" s="36"/>
       <c r="V15" s="36"/>
@@ -2014,10 +2022,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>9</v>
@@ -2058,17 +2066,17 @@
         <v>11</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
@@ -2082,14 +2090,18 @@
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="L17" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M17" s="36"/>
       <c r="N17" s="36"/>
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="Q17" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="S17" s="36"/>
       <c r="T17" s="36"/>
       <c r="U17" s="36"/>
@@ -2162,7 +2174,7 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
@@ -2176,7 +2188,7 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
@@ -2184,7 +2196,9 @@
       <c r="P19" s="36"/>
       <c r="Q19" s="36"/>
       <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
+      <c r="S19" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="T19" s="36"/>
       <c r="U19" s="36"/>
       <c r="V19" s="36"/>
@@ -2222,10 +2236,10 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M20" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N20" s="36"/>
       <c r="O20" s="36"/>
@@ -2258,7 +2272,7 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
@@ -2272,19 +2286,21 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
       <c r="L21" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M21" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N21" s="36"/>
       <c r="O21" s="36"/>
       <c r="P21" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="36"/>
       <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
+      <c r="S21" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="T21" s="36"/>
       <c r="U21" s="36"/>
       <c r="V21" s="36"/>
@@ -2372,10 +2388,10 @@
         <v>21</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M23" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N23" s="36"/>
       <c r="O23" s="36"/>
@@ -2408,7 +2424,7 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
@@ -2428,7 +2444,9 @@
       <c r="N24" s="36"/>
       <c r="O24" s="36"/>
       <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
+      <c r="Q24" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="R24" s="36"/>
       <c r="S24" s="36"/>
       <c r="T24" s="36"/>
@@ -2456,7 +2474,7 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
@@ -2470,14 +2488,16 @@
       <c r="J25" s="36"/>
       <c r="K25" s="36"/>
       <c r="L25" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M25" s="36"/>
       <c r="N25" s="36"/>
       <c r="O25" s="36"/>
       <c r="P25" s="36"/>
       <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
+      <c r="R25" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="S25" s="36"/>
       <c r="T25" s="36"/>
       <c r="U25" s="36"/>
@@ -2504,7 +2524,7 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
@@ -2525,7 +2545,9 @@
       <c r="O26" s="36"/>
       <c r="P26" s="36"/>
       <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
+      <c r="R26" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="S26" s="36"/>
       <c r="T26" s="36"/>
       <c r="U26" s="36"/>
@@ -2552,7 +2574,7 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
@@ -2565,14 +2587,18 @@
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
       <c r="M27" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N27" s="36"/>
       <c r="O27" s="36"/>
       <c r="P27" s="36"/>
       <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
+      <c r="R27" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="S27" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="T27" s="36"/>
       <c r="U27" s="36"/>
       <c r="V27" s="36"/>
@@ -2610,10 +2636,10 @@
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
       <c r="L28" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M28" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N28" s="36"/>
       <c r="O28" s="36"/>
@@ -2646,7 +2672,7 @@
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
@@ -2664,7 +2690,9 @@
       <c r="P29" s="36"/>
       <c r="Q29" s="36"/>
       <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
+      <c r="S29" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="T29" s="36"/>
       <c r="U29" s="36"/>
       <c r="V29" s="36"/>
@@ -2702,7 +2730,7 @@
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
       <c r="L30" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M30" s="36"/>
       <c r="N30" s="36"/>
@@ -2782,7 +2810,7 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
@@ -2800,7 +2828,9 @@
       <c r="N32" s="36"/>
       <c r="O32" s="36"/>
       <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
+      <c r="Q32" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="R32" s="36"/>
       <c r="S32" s="36"/>
       <c r="T32" s="36"/>
@@ -2828,7 +2858,7 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
@@ -2848,7 +2878,9 @@
       <c r="P33" s="36"/>
       <c r="Q33" s="36"/>
       <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
+      <c r="S33" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
       <c r="V33" s="36"/>
@@ -2918,7 +2950,7 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
@@ -2930,17 +2962,19 @@
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
       <c r="L35" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M35" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N35" s="36"/>
       <c r="O35" s="36"/>
       <c r="P35" s="36"/>
       <c r="Q35" s="36"/>
       <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
+      <c r="S35" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="T35" s="36"/>
       <c r="U35" s="36"/>
       <c r="V35" s="36"/>
@@ -2980,7 +3014,7 @@
       <c r="L36" s="36"/>
       <c r="M36" s="36"/>
       <c r="N36" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="O36" s="36"/>
       <c r="P36" s="36"/>
@@ -3012,7 +3046,7 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
@@ -3034,7 +3068,9 @@
       <c r="P37" s="36"/>
       <c r="Q37" s="36"/>
       <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
+      <c r="S37" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="T37" s="36"/>
       <c r="U37" s="36"/>
       <c r="V37" s="36"/>
@@ -3104,7 +3140,7 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
@@ -3118,17 +3154,19 @@
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
       <c r="L39" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M39" s="36"/>
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
       <c r="P39" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="Q39" s="36"/>
       <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
+      <c r="S39" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="T39" s="36"/>
       <c r="U39" s="36"/>
       <c r="V39" s="36"/>
@@ -3214,7 +3252,7 @@
       <c r="L41" s="36"/>
       <c r="M41" s="36"/>
       <c r="N41" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="O41" s="36"/>
       <c r="P41" s="36"/>
@@ -3246,7 +3284,7 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
@@ -3263,7 +3301,9 @@
       <c r="O42" s="36"/>
       <c r="P42" s="36"/>
       <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
+      <c r="R42" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="S42" s="36"/>
       <c r="T42" s="36"/>
       <c r="U42" s="36"/>
@@ -3290,7 +3330,7 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
@@ -3305,11 +3345,13 @@
       <c r="M43" s="36"/>
       <c r="N43" s="36"/>
       <c r="O43" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="P43" s="36"/>
       <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
+      <c r="R43" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="S43" s="36"/>
       <c r="T43" s="36"/>
       <c r="U43" s="36"/>
@@ -3350,13 +3392,13 @@
       </c>
       <c r="K44" s="36"/>
       <c r="L44" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M44" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N44" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="O44" s="36"/>
       <c r="P44" s="36"/>
@@ -3400,7 +3442,7 @@
       <c r="J45" s="36"/>
       <c r="K45" s="36"/>
       <c r="L45" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M45" s="36"/>
       <c r="N45" s="36"/>
@@ -3496,7 +3538,7 @@
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
       <c r="N47" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="O47" s="36"/>
       <c r="P47" s="36"/>
@@ -3528,7 +3570,7 @@
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
@@ -3543,12 +3585,14 @@
       <c r="M48" s="36"/>
       <c r="N48" s="36"/>
       <c r="O48" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="P48" s="36"/>
       <c r="Q48" s="36"/>
       <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
+      <c r="S48" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="T48" s="36"/>
       <c r="U48" s="36"/>
       <c r="V48" s="36"/>
@@ -3574,7 +3618,7 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
@@ -3588,15 +3632,17 @@
       <c r="J49" s="36"/>
       <c r="K49" s="36"/>
       <c r="L49" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M49" s="36"/>
       <c r="N49" s="36"/>
       <c r="O49" s="36"/>
       <c r="P49" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q49" s="36"/>
+        <v>22</v>
+      </c>
+      <c r="Q49" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="R49" s="36"/>
       <c r="S49" s="36"/>
       <c r="T49" s="36"/>
@@ -3624,7 +3670,7 @@
       </c>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
@@ -3642,7 +3688,9 @@
       <c r="P50" s="36"/>
       <c r="Q50" s="36"/>
       <c r="R50" s="36"/>
-      <c r="S50" s="36"/>
+      <c r="S50" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="T50" s="36"/>
       <c r="U50" s="36"/>
       <c r="V50" s="36"/>
@@ -3668,7 +3716,7 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
@@ -3682,12 +3730,14 @@
       <c r="L51" s="36"/>
       <c r="M51" s="36"/>
       <c r="N51" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="O51" s="36"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="36"/>
-      <c r="R51" s="36"/>
+      <c r="R51" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="S51" s="36"/>
       <c r="T51" s="36"/>
       <c r="U51" s="36"/>
@@ -3758,7 +3808,7 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
@@ -3770,17 +3820,19 @@
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
       <c r="L53" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M53" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N53" s="36"/>
       <c r="O53" s="36"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="36"/>
       <c r="R53" s="36"/>
-      <c r="S53" s="36"/>
+      <c r="S53" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="T53" s="36"/>
       <c r="U53" s="36"/>
       <c r="V53" s="36"/>
@@ -3820,10 +3872,10 @@
       <c r="L54" s="36"/>
       <c r="M54" s="36"/>
       <c r="N54" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="O54" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="P54" s="36"/>
       <c r="Q54" s="36"/>
@@ -3854,7 +3906,7 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
@@ -3874,7 +3926,9 @@
       <c r="P55" s="36"/>
       <c r="Q55" s="36"/>
       <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
+      <c r="S55" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="T55" s="36"/>
       <c r="U55" s="36"/>
       <c r="V55" s="36"/>
@@ -3900,7 +3954,7 @@
       </c>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
@@ -3918,7 +3972,9 @@
       <c r="P56" s="36"/>
       <c r="Q56" s="36"/>
       <c r="R56" s="36"/>
-      <c r="S56" s="36"/>
+      <c r="S56" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="T56" s="36"/>
       <c r="U56" s="36"/>
       <c r="V56" s="36"/>
@@ -3961,11 +4017,11 @@
       <c r="K57" s="36"/>
       <c r="L57" s="36"/>
       <c r="M57" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N57" s="36"/>
       <c r="O57" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="P57" s="36"/>
       <c r="Q57" s="36"/>
@@ -4010,13 +4066,13 @@
       </c>
       <c r="K58" s="36"/>
       <c r="L58" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
       <c r="O58" s="36"/>
       <c r="P58" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="Q58" s="36"/>
       <c r="R58" s="36"/>
@@ -4090,7 +4146,7 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
@@ -4104,11 +4160,13 @@
       <c r="L60" s="36"/>
       <c r="M60" s="36"/>
       <c r="N60" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="O60" s="36"/>
       <c r="P60" s="36"/>
-      <c r="Q60" s="36"/>
+      <c r="Q60" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="R60" s="36"/>
       <c r="S60" s="36"/>
       <c r="T60" s="36"/>
@@ -4136,7 +4194,7 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
@@ -4156,7 +4214,9 @@
       <c r="P61" s="36"/>
       <c r="Q61" s="36"/>
       <c r="R61" s="36"/>
-      <c r="S61" s="36"/>
+      <c r="S61" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="T61" s="36"/>
       <c r="U61" s="36"/>
       <c r="V61" s="36"/>
@@ -4196,7 +4256,7 @@
       <c r="L62" s="36"/>
       <c r="M62" s="36"/>
       <c r="N62" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="O62" s="36"/>
       <c r="P62" s="36"/>
@@ -4228,7 +4288,7 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
@@ -4246,7 +4306,9 @@
       <c r="P63" s="36"/>
       <c r="Q63" s="36"/>
       <c r="R63" s="36"/>
-      <c r="S63" s="36"/>
+      <c r="S63" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="T63" s="36"/>
       <c r="U63" s="36"/>
       <c r="V63" s="36"/>
@@ -4288,7 +4350,7 @@
       <c r="N64" s="36"/>
       <c r="O64" s="36"/>
       <c r="P64" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="Q64" s="36"/>
       <c r="R64" s="36"/>
@@ -4318,7 +4380,7 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
@@ -4334,9 +4396,11 @@
       <c r="N65" s="36"/>
       <c r="O65" s="36"/>
       <c r="P65" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q65" s="36"/>
+        <v>22</v>
+      </c>
+      <c r="Q65" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="R65" s="36"/>
       <c r="S65" s="36"/>
       <c r="T65" s="36"/>
@@ -4376,14 +4440,14 @@
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
       <c r="L66" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M66" s="36"/>
       <c r="N66" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="O66" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="P66" s="36"/>
       <c r="Q66" s="36"/>
@@ -4475,7 +4539,7 @@
       <c r="M68" s="36"/>
       <c r="N68" s="36"/>
       <c r="O68" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="P68" s="36"/>
       <c r="Q68" s="36"/>
@@ -4550,7 +4614,7 @@
       </c>
       <c r="E70" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
@@ -4567,7 +4631,9 @@
       <c r="O70" s="36"/>
       <c r="P70" s="36"/>
       <c r="Q70" s="36"/>
-      <c r="R70" s="36"/>
+      <c r="R70" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="S70" s="36"/>
       <c r="T70" s="36"/>
       <c r="U70" s="36"/>
@@ -4638,7 +4704,7 @@
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
@@ -4656,7 +4722,9 @@
       <c r="P72" s="36"/>
       <c r="Q72" s="36"/>
       <c r="R72" s="36"/>
-      <c r="S72" s="36"/>
+      <c r="S72" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="T72" s="36"/>
       <c r="U72" s="36"/>
       <c r="V72" s="36"/>
@@ -4696,10 +4764,10 @@
         <v>21</v>
       </c>
       <c r="L73" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M73" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N73" s="36"/>
       <c r="O73" s="36"/>
@@ -4732,7 +4800,7 @@
       </c>
       <c r="E74" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
@@ -4748,12 +4816,14 @@
       <c r="L74" s="36"/>
       <c r="M74" s="36"/>
       <c r="N74" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="O74" s="36"/>
       <c r="P74" s="36"/>
       <c r="Q74" s="36"/>
-      <c r="R74" s="36"/>
+      <c r="R74" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="S74" s="36"/>
       <c r="T74" s="36"/>
       <c r="U74" s="36"/>
@@ -4794,11 +4864,11 @@
       <c r="L75" s="36"/>
       <c r="M75" s="36"/>
       <c r="N75" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="O75" s="36"/>
       <c r="P75" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="Q75" s="36"/>
       <c r="R75" s="36"/>
@@ -4840,7 +4910,7 @@
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
       <c r="L76" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M76" s="36"/>
       <c r="N76" s="36"/>
@@ -4874,7 +4944,7 @@
       </c>
       <c r="E77" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
@@ -4888,17 +4958,19 @@
       <c r="L77" s="36"/>
       <c r="M77" s="36"/>
       <c r="N77" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="O77" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="P77" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="Q77" s="36"/>
       <c r="R77" s="36"/>
-      <c r="S77" s="36"/>
+      <c r="S77" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="T77" s="36"/>
       <c r="U77" s="36"/>
       <c r="V77" s="36"/>
@@ -4939,7 +5011,7 @@
       <c r="M78" s="36"/>
       <c r="N78" s="36"/>
       <c r="O78" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="P78" s="36"/>
       <c r="Q78" s="36"/>
@@ -4970,7 +5042,7 @@
       </c>
       <c r="E79" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
@@ -4987,12 +5059,16 @@
       <c r="M79" s="36"/>
       <c r="N79" s="36"/>
       <c r="O79" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="P79" s="36"/>
       <c r="Q79" s="36"/>
-      <c r="R79" s="36"/>
-      <c r="S79" s="36"/>
+      <c r="R79" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="S79" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="T79" s="36"/>
       <c r="U79" s="36"/>
       <c r="V79" s="36"/>
@@ -5036,10 +5112,10 @@
       <c r="L80" s="36"/>
       <c r="M80" s="36"/>
       <c r="N80" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="O80" s="38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="P80" s="36"/>
       <c r="Q80" s="36"/>

--- a/attendance-files/FA-II/FA-II (B) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (B) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="171">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
@@ -1866,7 +1866,9 @@
       <c r="R12" s="36"/>
       <c r="S12" s="36"/>
       <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
+      <c r="U12" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="V12" s="36"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -2326,7 +2328,7 @@
       </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
@@ -2347,7 +2349,9 @@
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
+      <c r="T22" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="U22" s="36"/>
       <c r="V22" s="36"/>
       <c r="W22" s="36"/>
@@ -2474,7 +2478,7 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
@@ -2499,7 +2503,9 @@
         <v>22</v>
       </c>
       <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
+      <c r="T25" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="U25" s="36"/>
       <c r="V25" s="36"/>
       <c r="W25" s="36"/>
@@ -2524,7 +2530,7 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
@@ -2550,7 +2556,9 @@
       </c>
       <c r="S26" s="36"/>
       <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
+      <c r="U26" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="V26" s="36"/>
       <c r="W26" s="36"/>
       <c r="X26" s="36"/>
@@ -2810,7 +2818,7 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
@@ -2834,7 +2842,9 @@
       <c r="R32" s="36"/>
       <c r="S32" s="36"/>
       <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
+      <c r="U32" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="V32" s="36"/>
       <c r="W32" s="36"/>
       <c r="X32" s="36"/>
@@ -2906,7 +2916,7 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
@@ -2925,7 +2935,9 @@
       <c r="Q34" s="36"/>
       <c r="R34" s="36"/>
       <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
+      <c r="T34" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="U34" s="36"/>
       <c r="V34" s="36"/>
       <c r="W34" s="36"/>
@@ -3000,7 +3012,7 @@
       </c>
       <c r="E36" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
@@ -3021,7 +3033,9 @@
       <c r="Q36" s="36"/>
       <c r="R36" s="36"/>
       <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
+      <c r="T36" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="U36" s="36"/>
       <c r="V36" s="36"/>
       <c r="W36" s="36"/>
@@ -3046,7 +3060,7 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
@@ -3071,8 +3085,12 @@
       <c r="S37" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
+      <c r="T37" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="U37" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="V37" s="36"/>
       <c r="W37" s="36"/>
       <c r="X37" s="36"/>
@@ -3096,7 +3114,7 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
@@ -3115,8 +3133,12 @@
       <c r="Q38" s="36"/>
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
+      <c r="T38" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="U38" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="V38" s="36"/>
       <c r="W38" s="36"/>
       <c r="X38" s="36"/>
@@ -3236,7 +3258,7 @@
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
@@ -3259,7 +3281,9 @@
       <c r="Q41" s="36"/>
       <c r="R41" s="36"/>
       <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
+      <c r="T41" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="U41" s="36"/>
       <c r="V41" s="36"/>
       <c r="W41" s="36"/>
@@ -3330,7 +3354,7 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
@@ -3353,7 +3377,9 @@
         <v>22</v>
       </c>
       <c r="S43" s="36"/>
-      <c r="T43" s="36"/>
+      <c r="T43" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="U43" s="36"/>
       <c r="V43" s="36"/>
       <c r="W43" s="36"/>
@@ -3670,7 +3696,7 @@
       </c>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
@@ -3691,7 +3717,9 @@
       <c r="S50" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="T50" s="36"/>
+      <c r="T50" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="U50" s="36"/>
       <c r="V50" s="36"/>
       <c r="W50" s="36"/>
@@ -3764,7 +3792,7 @@
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
@@ -3783,7 +3811,9 @@
       <c r="Q52" s="36"/>
       <c r="R52" s="36"/>
       <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
+      <c r="T52" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="U52" s="36"/>
       <c r="V52" s="36"/>
       <c r="W52" s="36"/>
@@ -3808,7 +3838,7 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
@@ -3833,7 +3863,9 @@
       <c r="S53" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="T53" s="36"/>
+      <c r="T53" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="U53" s="36"/>
       <c r="V53" s="36"/>
       <c r="W53" s="36"/>
@@ -3906,7 +3938,7 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
@@ -3929,7 +3961,9 @@
       <c r="S55" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="T55" s="36"/>
+      <c r="T55" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="U55" s="36"/>
       <c r="V55" s="36"/>
       <c r="W55" s="36"/>
@@ -4242,7 +4276,7 @@
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
@@ -4264,7 +4298,9 @@
       <c r="R62" s="36"/>
       <c r="S62" s="36"/>
       <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
+      <c r="U62" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="V62" s="36"/>
       <c r="W62" s="36"/>
       <c r="X62" s="36"/>
@@ -4428,7 +4464,7 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
@@ -4453,7 +4489,9 @@
       <c r="Q66" s="36"/>
       <c r="R66" s="36"/>
       <c r="S66" s="36"/>
-      <c r="T66" s="36"/>
+      <c r="T66" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="U66" s="36"/>
       <c r="V66" s="36"/>
       <c r="W66" s="36"/>
@@ -4478,7 +4516,7 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
@@ -4497,7 +4535,9 @@
       <c r="Q67" s="36"/>
       <c r="R67" s="36"/>
       <c r="S67" s="36"/>
-      <c r="T67" s="36"/>
+      <c r="T67" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="U67" s="36"/>
       <c r="V67" s="36"/>
       <c r="W67" s="36"/>
@@ -4704,7 +4744,7 @@
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
@@ -4725,7 +4765,9 @@
       <c r="S72" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="T72" s="36"/>
+      <c r="T72" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="U72" s="36"/>
       <c r="V72" s="36"/>
       <c r="W72" s="36"/>
@@ -4898,7 +4940,7 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
@@ -4919,7 +4961,9 @@
       <c r="Q76" s="36"/>
       <c r="R76" s="36"/>
       <c r="S76" s="36"/>
-      <c r="T76" s="36"/>
+      <c r="T76" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="U76" s="36"/>
       <c r="V76" s="36"/>
       <c r="W76" s="36"/>
@@ -5094,7 +5138,7 @@
       </c>
       <c r="E80" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
@@ -5121,7 +5165,9 @@
       <c r="Q80" s="36"/>
       <c r="R80" s="36"/>
       <c r="S80" s="36"/>
-      <c r="T80" s="36"/>
+      <c r="T80" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="U80" s="36"/>
       <c r="V80" s="36"/>
       <c r="W80" s="36"/>

--- a/attendance-files/FA-II/FA-II (B) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (B) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="171">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
@@ -1647,7 +1647,9 @@
       </c>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
+      <c r="V7" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="W7" s="30"/>
       <c r="X7" s="30"/>
       <c r="Y7" s="30"/>
@@ -1758,7 +1760,7 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
@@ -1780,7 +1782,9 @@
       <c r="T10" s="36"/>
       <c r="U10" s="36"/>
       <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
+      <c r="W10" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="X10" s="36"/>
       <c r="Y10" s="36"/>
       <c r="Z10" s="36"/>
@@ -1802,7 +1806,7 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
@@ -1824,7 +1828,9 @@
       <c r="T11" s="36"/>
       <c r="U11" s="36"/>
       <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
+      <c r="W11" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="X11" s="36"/>
       <c r="Y11" s="36"/>
       <c r="Z11" s="36"/>
@@ -1892,7 +1898,7 @@
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
@@ -1918,7 +1924,9 @@
       <c r="T13" s="36"/>
       <c r="U13" s="36"/>
       <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
+      <c r="W13" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="X13" s="36"/>
       <c r="Y13" s="36"/>
       <c r="Z13" s="36"/>
@@ -1940,7 +1948,7 @@
       </c>
       <c r="E14" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
@@ -1961,7 +1969,9 @@
       <c r="S14" s="36"/>
       <c r="T14" s="36"/>
       <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
+      <c r="V14" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
       <c r="Y14" s="36"/>
@@ -1984,7 +1994,7 @@
       </c>
       <c r="E15" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
@@ -2012,7 +2022,9 @@
       <c r="T15" s="36"/>
       <c r="U15" s="36"/>
       <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
+      <c r="W15" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="X15" s="36"/>
       <c r="Y15" s="36"/>
       <c r="Z15" s="36"/>
@@ -2078,7 +2090,7 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
@@ -2107,8 +2119,12 @@
       <c r="S17" s="36"/>
       <c r="T17" s="36"/>
       <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
+      <c r="V17" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="W17" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="X17" s="36"/>
       <c r="Y17" s="36"/>
       <c r="Z17" s="36"/>
@@ -2176,7 +2192,7 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
@@ -2204,7 +2220,9 @@
       <c r="T19" s="36"/>
       <c r="U19" s="36"/>
       <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
+      <c r="W19" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="X19" s="36"/>
       <c r="Y19" s="36"/>
       <c r="Z19" s="36"/>
@@ -2478,7 +2496,7 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
@@ -2508,7 +2526,9 @@
       </c>
       <c r="U25" s="36"/>
       <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
+      <c r="W25" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="X25" s="36"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="36"/>
@@ -2530,7 +2550,7 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
@@ -2559,7 +2579,9 @@
       <c r="U26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="V26" s="36"/>
+      <c r="V26" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="W26" s="36"/>
       <c r="X26" s="36"/>
       <c r="Y26" s="36"/>
@@ -2632,7 +2654,7 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
@@ -2658,7 +2680,9 @@
       <c r="T28" s="36"/>
       <c r="U28" s="36"/>
       <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
+      <c r="W28" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="X28" s="36"/>
       <c r="Y28" s="36"/>
       <c r="Z28" s="36"/>
@@ -2680,7 +2704,7 @@
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
@@ -2704,7 +2728,9 @@
       <c r="T29" s="36"/>
       <c r="U29" s="36"/>
       <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
+      <c r="W29" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="X29" s="36"/>
       <c r="Y29" s="36"/>
       <c r="Z29" s="36"/>
@@ -2818,7 +2844,7 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
@@ -2845,7 +2871,9 @@
       <c r="U32" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="V32" s="36"/>
+      <c r="V32" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="W32" s="36"/>
       <c r="X32" s="36"/>
       <c r="Y32" s="36"/>
@@ -2868,7 +2896,7 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
@@ -2894,7 +2922,9 @@
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
       <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
+      <c r="W33" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="X33" s="36"/>
       <c r="Y33" s="36"/>
       <c r="Z33" s="36"/>
@@ -2916,7 +2946,7 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
@@ -2940,7 +2970,9 @@
       </c>
       <c r="U34" s="36"/>
       <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
+      <c r="W34" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="X34" s="36"/>
       <c r="Y34" s="36"/>
       <c r="Z34" s="36"/>
@@ -3012,7 +3044,7 @@
       </c>
       <c r="E36" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
@@ -3038,7 +3070,9 @@
       </c>
       <c r="U36" s="36"/>
       <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
+      <c r="W36" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="X36" s="36"/>
       <c r="Y36" s="36"/>
       <c r="Z36" s="36"/>
@@ -3060,7 +3094,7 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
@@ -3091,7 +3125,9 @@
       <c r="U37" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="V37" s="36"/>
+      <c r="V37" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="W37" s="36"/>
       <c r="X37" s="36"/>
       <c r="Y37" s="36"/>
@@ -3114,7 +3150,7 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
@@ -3140,7 +3176,9 @@
         <v>22</v>
       </c>
       <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
+      <c r="W38" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="X38" s="36"/>
       <c r="Y38" s="36"/>
       <c r="Z38" s="36"/>
@@ -3162,7 +3200,7 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
@@ -3192,7 +3230,9 @@
       <c r="T39" s="36"/>
       <c r="U39" s="36"/>
       <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
+      <c r="W39" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="X39" s="36"/>
       <c r="Y39" s="36"/>
       <c r="Z39" s="36"/>
@@ -3258,7 +3298,7 @@
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
@@ -3286,7 +3326,9 @@
       </c>
       <c r="U41" s="36"/>
       <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
+      <c r="W41" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="X41" s="36"/>
       <c r="Y41" s="36"/>
       <c r="Z41" s="36"/>
@@ -3308,7 +3350,7 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
@@ -3332,7 +3374,9 @@
       <c r="T42" s="36"/>
       <c r="U42" s="36"/>
       <c r="V42" s="36"/>
-      <c r="W42" s="36"/>
+      <c r="W42" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="X42" s="36"/>
       <c r="Y42" s="36"/>
       <c r="Z42" s="36"/>
@@ -3744,7 +3788,7 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
@@ -3769,7 +3813,9 @@
       <c r="S51" s="36"/>
       <c r="T51" s="36"/>
       <c r="U51" s="36"/>
-      <c r="V51" s="36"/>
+      <c r="V51" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="W51" s="36"/>
       <c r="X51" s="36"/>
       <c r="Y51" s="36"/>
@@ -3890,7 +3936,7 @@
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
@@ -3916,7 +3962,9 @@
       <c r="T54" s="36"/>
       <c r="U54" s="36"/>
       <c r="V54" s="36"/>
-      <c r="W54" s="36"/>
+      <c r="W54" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="X54" s="36"/>
       <c r="Y54" s="36"/>
       <c r="Z54" s="36"/>
@@ -4180,7 +4228,7 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
@@ -4206,7 +4254,9 @@
       <c r="T60" s="36"/>
       <c r="U60" s="36"/>
       <c r="V60" s="36"/>
-      <c r="W60" s="36"/>
+      <c r="W60" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="X60" s="36"/>
       <c r="Y60" s="36"/>
       <c r="Z60" s="36"/>
@@ -4370,7 +4420,7 @@
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
@@ -4394,7 +4444,9 @@
       <c r="T64" s="36"/>
       <c r="U64" s="36"/>
       <c r="V64" s="36"/>
-      <c r="W64" s="36"/>
+      <c r="W64" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="X64" s="36"/>
       <c r="Y64" s="36"/>
       <c r="Z64" s="36"/>
@@ -4700,7 +4752,7 @@
       </c>
       <c r="E71" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
@@ -4722,7 +4774,9 @@
       <c r="T71" s="36"/>
       <c r="U71" s="36"/>
       <c r="V71" s="36"/>
-      <c r="W71" s="36"/>
+      <c r="W71" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="X71" s="36"/>
       <c r="Y71" s="36"/>
       <c r="Z71" s="36"/>
@@ -5040,7 +5094,7 @@
       </c>
       <c r="E78" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
@@ -5063,7 +5117,9 @@
       <c r="S78" s="36"/>
       <c r="T78" s="36"/>
       <c r="U78" s="36"/>
-      <c r="V78" s="36"/>
+      <c r="V78" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="W78" s="36"/>
       <c r="X78" s="36"/>
       <c r="Y78" s="36"/>

--- a/attendance-files/FA-II/FA-II (B) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (B) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="171">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
@@ -2171,7 +2171,9 @@
       <c r="U18" s="36"/>
       <c r="V18" s="36"/>
       <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
+      <c r="X18" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="Y18" s="36"/>
       <c r="Z18" s="36"/>
       <c r="AA18" s="36"/>
@@ -2446,7 +2448,7 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
@@ -2475,7 +2477,9 @@
       <c r="U24" s="36"/>
       <c r="V24" s="36"/>
       <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
+      <c r="X24" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="Y24" s="36"/>
       <c r="Z24" s="36"/>
       <c r="AA24" s="36"/>
@@ -2946,7 +2950,7 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
@@ -2973,7 +2977,9 @@
       <c r="W34" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="X34" s="36"/>
+      <c r="X34" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="Y34" s="36"/>
       <c r="Z34" s="36"/>
       <c r="AA34" s="36"/>
@@ -3044,7 +3050,7 @@
       </c>
       <c r="E36" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
@@ -3073,7 +3079,9 @@
       <c r="W36" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="X36" s="36"/>
+      <c r="X36" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="Y36" s="36"/>
       <c r="Z36" s="36"/>
       <c r="AA36" s="36"/>
@@ -3398,7 +3406,7 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
@@ -3427,7 +3435,9 @@
       <c r="U43" s="36"/>
       <c r="V43" s="36"/>
       <c r="W43" s="36"/>
-      <c r="X43" s="36"/>
+      <c r="X43" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="Y43" s="36"/>
       <c r="Z43" s="36"/>
       <c r="AA43" s="36"/>
@@ -3500,7 +3510,7 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
@@ -3525,7 +3535,9 @@
       <c r="U45" s="36"/>
       <c r="V45" s="36"/>
       <c r="W45" s="36"/>
-      <c r="X45" s="36"/>
+      <c r="X45" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="Y45" s="36"/>
       <c r="Z45" s="36"/>
       <c r="AA45" s="36"/>
@@ -4468,7 +4480,7 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
@@ -4495,7 +4507,9 @@
       <c r="U65" s="36"/>
       <c r="V65" s="36"/>
       <c r="W65" s="36"/>
-      <c r="X65" s="36"/>
+      <c r="X65" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="Y65" s="36"/>
       <c r="Z65" s="36"/>
       <c r="AA65" s="36"/>
@@ -4798,7 +4812,7 @@
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
@@ -4825,7 +4839,9 @@
       <c r="U72" s="36"/>
       <c r="V72" s="36"/>
       <c r="W72" s="36"/>
-      <c r="X72" s="36"/>
+      <c r="X72" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="Y72" s="36"/>
       <c r="Z72" s="36"/>
       <c r="AA72" s="36"/>
@@ -4946,7 +4962,7 @@
       </c>
       <c r="E75" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
@@ -4973,7 +4989,9 @@
       <c r="U75" s="36"/>
       <c r="V75" s="36"/>
       <c r="W75" s="36"/>
-      <c r="X75" s="36"/>
+      <c r="X75" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="Y75" s="36"/>
       <c r="Z75" s="36"/>
       <c r="AA75" s="36"/>
@@ -4994,7 +5012,7 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
@@ -5021,7 +5039,9 @@
       <c r="U76" s="36"/>
       <c r="V76" s="36"/>
       <c r="W76" s="36"/>
-      <c r="X76" s="36"/>
+      <c r="X76" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="Y76" s="36"/>
       <c r="Z76" s="36"/>
       <c r="AA76" s="36"/>
@@ -5194,7 +5214,7 @@
       </c>
       <c r="E80" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
@@ -5227,7 +5247,9 @@
       <c r="U80" s="36"/>
       <c r="V80" s="36"/>
       <c r="W80" s="36"/>
-      <c r="X80" s="36"/>
+      <c r="X80" s="38" t="s">
+        <v>22</v>
+      </c>
       <c r="Y80" s="36"/>
       <c r="Z80" s="36"/>
       <c r="AA80" s="36"/>

--- a/attendance-files/FA-II/FA-II (B) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (B) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="171">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
@@ -1832,9 +1832,7 @@
         <v>22</v>
       </c>
       <c r="X11" s="36"/>
-      <c r="Y11" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y11" s="36"/>
       <c r="Z11" s="36"/>
       <c r="AA11" s="36"/>
     </row>
@@ -2092,7 +2090,7 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
@@ -2128,9 +2126,7 @@
         <v>22</v>
       </c>
       <c r="X17" s="36"/>
-      <c r="Y17" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y17" s="36"/>
       <c r="Z17" s="36"/>
       <c r="AA17" s="36"/>
     </row>
@@ -2150,7 +2146,7 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
@@ -2178,9 +2174,7 @@
       <c r="X18" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="Y18" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y18" s="36"/>
       <c r="Z18" s="36"/>
       <c r="AA18" s="36"/>
     </row>
@@ -2252,7 +2246,7 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
@@ -2280,9 +2274,7 @@
       <c r="V20" s="36"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
-      <c r="Y20" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y20" s="36"/>
       <c r="Z20" s="36"/>
       <c r="AA20" s="36"/>
     </row>
@@ -2356,7 +2348,7 @@
       </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
@@ -2384,9 +2376,7 @@
       <c r="V22" s="36"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
-      <c r="Y22" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y22" s="36"/>
       <c r="Z22" s="36"/>
       <c r="AA22" s="36"/>
     </row>
@@ -2510,7 +2500,7 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
@@ -2544,9 +2534,7 @@
         <v>22</v>
       </c>
       <c r="X25" s="36"/>
-      <c r="Y25" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y25" s="36"/>
       <c r="Z25" s="36"/>
       <c r="AA25" s="36"/>
     </row>
@@ -2720,7 +2708,7 @@
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
@@ -2748,9 +2736,7 @@
         <v>22</v>
       </c>
       <c r="X29" s="36"/>
-      <c r="Y29" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y29" s="36"/>
       <c r="Z29" s="36"/>
       <c r="AA29" s="36"/>
     </row>
@@ -2816,7 +2802,7 @@
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
@@ -2842,9 +2828,7 @@
       <c r="V31" s="36"/>
       <c r="W31" s="36"/>
       <c r="X31" s="36"/>
-      <c r="Y31" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y31" s="36"/>
       <c r="Z31" s="36"/>
       <c r="AA31" s="36"/>
     </row>
@@ -3016,7 +3000,7 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
@@ -3046,9 +3030,7 @@
       <c r="V35" s="36"/>
       <c r="W35" s="36"/>
       <c r="X35" s="36"/>
-      <c r="Y35" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y35" s="36"/>
       <c r="Z35" s="36"/>
       <c r="AA35" s="36"/>
     </row>
@@ -3120,7 +3102,7 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
@@ -3156,9 +3138,7 @@
       </c>
       <c r="W37" s="36"/>
       <c r="X37" s="36"/>
-      <c r="Y37" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y37" s="36"/>
       <c r="Z37" s="36"/>
       <c r="AA37" s="36"/>
     </row>
@@ -3282,7 +3262,7 @@
       </c>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
@@ -3306,9 +3286,7 @@
       <c r="V40" s="36"/>
       <c r="W40" s="36"/>
       <c r="X40" s="36"/>
-      <c r="Y40" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y40" s="36"/>
       <c r="Z40" s="36"/>
       <c r="AA40" s="36"/>
     </row>
@@ -3380,7 +3358,7 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
@@ -3408,9 +3386,7 @@
         <v>22</v>
       </c>
       <c r="X42" s="36"/>
-      <c r="Y42" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y42" s="36"/>
       <c r="Z42" s="36"/>
       <c r="AA42" s="36"/>
     </row>
@@ -3482,7 +3458,7 @@
       </c>
       <c r="E44" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
@@ -3514,9 +3490,7 @@
       <c r="V44" s="36"/>
       <c r="W44" s="36"/>
       <c r="X44" s="36"/>
-      <c r="Y44" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y44" s="36"/>
       <c r="Z44" s="36"/>
       <c r="AA44" s="36"/>
     </row>
@@ -3536,7 +3510,7 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
@@ -3564,9 +3538,7 @@
       <c r="X45" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="Y45" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y45" s="36"/>
       <c r="Z45" s="36"/>
       <c r="AA45" s="36"/>
     </row>
@@ -3586,7 +3558,7 @@
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
@@ -3614,9 +3586,7 @@
       <c r="V46" s="36"/>
       <c r="W46" s="36"/>
       <c r="X46" s="36"/>
-      <c r="Y46" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y46" s="36"/>
       <c r="Z46" s="36"/>
       <c r="AA46" s="36"/>
     </row>
@@ -3636,7 +3606,7 @@
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
@@ -3662,9 +3632,7 @@
       <c r="V47" s="36"/>
       <c r="W47" s="36"/>
       <c r="X47" s="36"/>
-      <c r="Y47" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y47" s="36"/>
       <c r="Z47" s="36"/>
       <c r="AA47" s="36"/>
     </row>
@@ -3684,7 +3652,7 @@
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
@@ -3712,9 +3680,7 @@
       <c r="V48" s="36"/>
       <c r="W48" s="36"/>
       <c r="X48" s="36"/>
-      <c r="Y48" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y48" s="36"/>
       <c r="Z48" s="36"/>
       <c r="AA48" s="36"/>
     </row>
@@ -3786,7 +3752,7 @@
       </c>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
@@ -3814,9 +3780,7 @@
       <c r="V50" s="36"/>
       <c r="W50" s="36"/>
       <c r="X50" s="36"/>
-      <c r="Y50" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y50" s="36"/>
       <c r="Z50" s="36"/>
       <c r="AA50" s="36"/>
     </row>
@@ -3836,7 +3800,7 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
@@ -3866,9 +3830,7 @@
       </c>
       <c r="W51" s="36"/>
       <c r="X51" s="36"/>
-      <c r="Y51" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y51" s="36"/>
       <c r="Z51" s="36"/>
       <c r="AA51" s="36"/>
     </row>
@@ -3986,7 +3948,7 @@
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
@@ -4016,9 +3978,7 @@
         <v>22</v>
       </c>
       <c r="X54" s="36"/>
-      <c r="Y54" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y54" s="36"/>
       <c r="Z54" s="36"/>
       <c r="AA54" s="36"/>
     </row>
@@ -4038,7 +3998,7 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
@@ -4068,9 +4028,7 @@
       <c r="V55" s="36"/>
       <c r="W55" s="36"/>
       <c r="X55" s="36"/>
-      <c r="Y55" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y55" s="36"/>
       <c r="Z55" s="36"/>
       <c r="AA55" s="36"/>
     </row>
@@ -4188,7 +4146,7 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
@@ -4218,9 +4176,7 @@
       <c r="V58" s="36"/>
       <c r="W58" s="36"/>
       <c r="X58" s="36"/>
-      <c r="Y58" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y58" s="36"/>
       <c r="Z58" s="36"/>
       <c r="AA58" s="36"/>
     </row>
@@ -4284,7 +4240,7 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
@@ -4314,9 +4270,7 @@
         <v>22</v>
       </c>
       <c r="X60" s="36"/>
-      <c r="Y60" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y60" s="36"/>
       <c r="Z60" s="36"/>
       <c r="AA60" s="36"/>
     </row>
@@ -4336,7 +4290,7 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
@@ -4364,9 +4318,7 @@
       <c r="V61" s="36"/>
       <c r="W61" s="36"/>
       <c r="X61" s="36"/>
-      <c r="Y61" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y61" s="36"/>
       <c r="Z61" s="36"/>
       <c r="AA61" s="36"/>
     </row>
@@ -4386,7 +4338,7 @@
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
@@ -4414,9 +4366,7 @@
       <c r="V62" s="36"/>
       <c r="W62" s="36"/>
       <c r="X62" s="36"/>
-      <c r="Y62" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y62" s="36"/>
       <c r="Z62" s="36"/>
       <c r="AA62" s="36"/>
     </row>
@@ -4436,7 +4386,7 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
@@ -4462,9 +4412,7 @@
       <c r="V63" s="36"/>
       <c r="W63" s="36"/>
       <c r="X63" s="36"/>
-      <c r="Y63" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y63" s="36"/>
       <c r="Z63" s="36"/>
       <c r="AA63" s="36"/>
     </row>
@@ -4484,7 +4432,7 @@
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
@@ -4512,9 +4460,7 @@
         <v>22</v>
       </c>
       <c r="X64" s="36"/>
-      <c r="Y64" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y64" s="36"/>
       <c r="Z64" s="36"/>
       <c r="AA64" s="36"/>
     </row>
@@ -4534,7 +4480,7 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
@@ -4564,9 +4510,7 @@
       <c r="X65" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="Y65" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y65" s="36"/>
       <c r="Z65" s="36"/>
       <c r="AA65" s="36"/>
     </row>
@@ -4638,7 +4582,7 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
@@ -4664,9 +4608,7 @@
       <c r="V67" s="36"/>
       <c r="W67" s="36"/>
       <c r="X67" s="36"/>
-      <c r="Y67" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y67" s="36"/>
       <c r="Z67" s="36"/>
       <c r="AA67" s="36"/>
     </row>
@@ -4778,7 +4720,7 @@
       </c>
       <c r="E70" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
@@ -4804,9 +4746,7 @@
       <c r="V70" s="36"/>
       <c r="W70" s="36"/>
       <c r="X70" s="36"/>
-      <c r="Y70" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y70" s="36"/>
       <c r="Z70" s="36"/>
       <c r="AA70" s="36"/>
     </row>
@@ -4972,7 +4912,7 @@
       </c>
       <c r="E74" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
@@ -5002,9 +4942,7 @@
       <c r="V74" s="36"/>
       <c r="W74" s="36"/>
       <c r="X74" s="36"/>
-      <c r="Y74" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y74" s="36"/>
       <c r="Z74" s="36"/>
       <c r="AA74" s="36"/>
     </row>
@@ -5024,7 +4962,7 @@
       </c>
       <c r="E75" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
@@ -5054,9 +4992,7 @@
       <c r="X75" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="Y75" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y75" s="36"/>
       <c r="Z75" s="36"/>
       <c r="AA75" s="36"/>
     </row>
@@ -5076,7 +5012,7 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
@@ -5106,9 +5042,7 @@
       <c r="X76" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="Y76" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y76" s="36"/>
       <c r="Z76" s="36"/>
       <c r="AA76" s="36"/>
     </row>
@@ -5180,7 +5114,7 @@
       </c>
       <c r="E78" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
@@ -5208,9 +5142,7 @@
       </c>
       <c r="W78" s="36"/>
       <c r="X78" s="36"/>
-      <c r="Y78" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y78" s="36"/>
       <c r="Z78" s="36"/>
       <c r="AA78" s="36"/>
     </row>
@@ -5230,7 +5162,7 @@
       </c>
       <c r="E79" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
@@ -5262,9 +5194,7 @@
       <c r="V79" s="36"/>
       <c r="W79" s="36"/>
       <c r="X79" s="36"/>
-      <c r="Y79" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="Y79" s="36"/>
       <c r="Z79" s="36"/>
       <c r="AA79" s="36"/>
     </row>
